--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamx\Documents\Portfolio\Software Testing\Manual Testing Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938D3E6-C392-451B-A613-CC2EE68869D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055115A3-CAC2-442A-944C-14533B610892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Employee Management" sheetId="8" r:id="rId2"/>
-    <sheet name="Leave - In Progress" sheetId="9" r:id="rId3"/>
-    <sheet name="Time - In Progress" sheetId="10" r:id="rId4"/>
-    <sheet name="Admin - In Progress" sheetId="11" r:id="rId5"/>
-    <sheet name="Recruitment - In Progress" sheetId="12" r:id="rId6"/>
-    <sheet name="Performance - In Progress" sheetId="13" r:id="rId7"/>
-    <sheet name="Maintenance - In Progress" sheetId="14" r:id="rId8"/>
+    <sheet name="Admin" sheetId="11" r:id="rId3"/>
+    <sheet name="Recruitment" sheetId="12" r:id="rId4"/>
+    <sheet name="Claim - In Progress" sheetId="13" r:id="rId5"/>
+    <sheet name="Buzz - In Progress" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="160">
   <si>
     <t>Expected Result</t>
   </si>
@@ -56,33 +54,9 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>TC_Login_001</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
-  </si>
-  <si>
-    <t>TC_Login_005</t>
-  </si>
-  <si>
-    <t>TC_Login_006</t>
-  </si>
-  <si>
-    <t>TC_Login_007</t>
-  </si>
-  <si>
-    <t>TC_Login_008</t>
-  </si>
-  <si>
     <t>Verify Login Functionality</t>
   </si>
   <si>
@@ -104,10 +78,25 @@
     <t>Login attempt with both fields empty</t>
   </si>
   <si>
+    <t>TC_PIM_001</t>
+  </si>
+  <si>
+    <t>TC_PIM_002</t>
+  </si>
+  <si>
+    <t>TC_PIM_003</t>
+  </si>
+  <si>
+    <t>TC_PIM_004</t>
+  </si>
+  <si>
     <t>TC_PIM_005</t>
   </si>
   <si>
-    <t>TC_PIM_008</t>
+    <t>TC_PIM_006</t>
+  </si>
+  <si>
+    <t>TC_PIM_007</t>
   </si>
   <si>
     <t>Verify adding employee with valid information</t>
@@ -125,126 +114,9 @@
     <t>Verify deleting employee</t>
   </si>
   <si>
-    <t>TC_PIM_009</t>
-  </si>
-  <si>
-    <t>TC_PIM_012</t>
-  </si>
-  <si>
-    <t>TC_PIM_014</t>
-  </si>
-  <si>
-    <t>TC_PIM_015</t>
-  </si>
-  <si>
-    <t>TC_PIM_016</t>
-  </si>
-  <si>
     <t>Verify viewing employees' information</t>
   </si>
   <si>
-    <t>TC_L_001</t>
-  </si>
-  <si>
-    <t>TC_L_002</t>
-  </si>
-  <si>
-    <t>TC_L_003</t>
-  </si>
-  <si>
-    <t>TC_L_004</t>
-  </si>
-  <si>
-    <t>TC_L_005</t>
-  </si>
-  <si>
-    <t>TC_L_006</t>
-  </si>
-  <si>
-    <t>TC_L_007</t>
-  </si>
-  <si>
-    <t>TC_L_008</t>
-  </si>
-  <si>
-    <t>TC_L_009</t>
-  </si>
-  <si>
-    <t>TC_L_010</t>
-  </si>
-  <si>
-    <t>TC_L_011</t>
-  </si>
-  <si>
-    <t>TC_L_012</t>
-  </si>
-  <si>
-    <t>TC_L_013</t>
-  </si>
-  <si>
-    <t>TC_L_014</t>
-  </si>
-  <si>
-    <t>TC_L_015</t>
-  </si>
-  <si>
-    <t>TC_L_016</t>
-  </si>
-  <si>
-    <t>TC_TIME_001</t>
-  </si>
-  <si>
-    <t>TC_TIME_002</t>
-  </si>
-  <si>
-    <t>TC_TIME_003</t>
-  </si>
-  <si>
-    <t>TC_TIME_004</t>
-  </si>
-  <si>
-    <t>TC_TIME_005</t>
-  </si>
-  <si>
-    <t>TC_TIME_006</t>
-  </si>
-  <si>
-    <t>TC_TIME_007</t>
-  </si>
-  <si>
-    <t>TC_TIME_008</t>
-  </si>
-  <si>
-    <t>TC_TIME_009</t>
-  </si>
-  <si>
-    <t>TC_TIME_010</t>
-  </si>
-  <si>
-    <t>TC_TIME_011</t>
-  </si>
-  <si>
-    <t>TC_TIME_012</t>
-  </si>
-  <si>
-    <t>TC_TIME_013</t>
-  </si>
-  <si>
-    <t>TC_TIME_014</t>
-  </si>
-  <si>
-    <t>TC_TIME_015</t>
-  </si>
-  <si>
-    <t>TC_TIME_016</t>
-  </si>
-  <si>
-    <t>Verify Time Module Functionality</t>
-  </si>
-  <si>
-    <t>Verify Leave Module Functionality</t>
-  </si>
-  <si>
     <t>Verify PIM Module Functionality</t>
   </si>
   <si>
@@ -260,45 +132,6 @@
     <t>TC_ADMIN_003</t>
   </si>
   <si>
-    <t>TC_ADMIN_004</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_005</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_006</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_007</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_008</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_009</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_010</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_011</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_012</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_013</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_014</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_015</t>
-  </si>
-  <si>
-    <t>TC_ADMIN_016</t>
-  </si>
-  <si>
     <t>TC_REC_001</t>
   </si>
   <si>
@@ -309,147 +142,6 @@
   </si>
   <si>
     <t>TC_REC_003</t>
-  </si>
-  <si>
-    <t>TC_REC_004</t>
-  </si>
-  <si>
-    <t>TC_REC_005</t>
-  </si>
-  <si>
-    <t>TC_REC_006</t>
-  </si>
-  <si>
-    <t>TC_REC_007</t>
-  </si>
-  <si>
-    <t>TC_REC_008</t>
-  </si>
-  <si>
-    <t>TC_REC_009</t>
-  </si>
-  <si>
-    <t>TC_REC_010</t>
-  </si>
-  <si>
-    <t>TC_REC_011</t>
-  </si>
-  <si>
-    <t>TC_REC_012</t>
-  </si>
-  <si>
-    <t>TC_REC_013</t>
-  </si>
-  <si>
-    <t>TC_REC_014</t>
-  </si>
-  <si>
-    <t>TC_REC_015</t>
-  </si>
-  <si>
-    <t>TC_REC_016</t>
-  </si>
-  <si>
-    <t>Verify Performance Module Functionality</t>
-  </si>
-  <si>
-    <t>TC_PERF_001</t>
-  </si>
-  <si>
-    <t>TC_PERF_002</t>
-  </si>
-  <si>
-    <t>TC_PERF_003</t>
-  </si>
-  <si>
-    <t>TC_PERF_004</t>
-  </si>
-  <si>
-    <t>TC_PERF_005</t>
-  </si>
-  <si>
-    <t>TC_PERF_006</t>
-  </si>
-  <si>
-    <t>TC_PERF_007</t>
-  </si>
-  <si>
-    <t>TC_PERF_008</t>
-  </si>
-  <si>
-    <t>TC_PERF_009</t>
-  </si>
-  <si>
-    <t>TC_PERF_010</t>
-  </si>
-  <si>
-    <t>TC_PERF_011</t>
-  </si>
-  <si>
-    <t>TC_PERF_012</t>
-  </si>
-  <si>
-    <t>TC_PERF_013</t>
-  </si>
-  <si>
-    <t>TC_PERF_014</t>
-  </si>
-  <si>
-    <t>TC_PERF_015</t>
-  </si>
-  <si>
-    <t>TC_PERF_016</t>
-  </si>
-  <si>
-    <t>Verify Maintenance Module Functionality</t>
-  </si>
-  <si>
-    <t>TC_MAINT_001</t>
-  </si>
-  <si>
-    <t>TC_MAINT_002</t>
-  </si>
-  <si>
-    <t>TC_MAINT_003</t>
-  </si>
-  <si>
-    <t>TC_MAINT_004</t>
-  </si>
-  <si>
-    <t>TC_MAINT_005</t>
-  </si>
-  <si>
-    <t>TC_MAINT_006</t>
-  </si>
-  <si>
-    <t>TC_MAINT_007</t>
-  </si>
-  <si>
-    <t>TC_MAINT_008</t>
-  </si>
-  <si>
-    <t>TC_MAINT_009</t>
-  </si>
-  <si>
-    <t>TC_MAINT_010</t>
-  </si>
-  <si>
-    <t>TC_MAINT_011</t>
-  </si>
-  <si>
-    <t>TC_MAINT_012</t>
-  </si>
-  <si>
-    <t>TC_MAINT_013</t>
-  </si>
-  <si>
-    <t>TC_MAINT_014</t>
-  </si>
-  <si>
-    <t>TC_MAINT_015</t>
-  </si>
-  <si>
-    <t>TC_MAINT_016</t>
   </si>
   <si>
     <t>The user is successfully logged in and is redirected to the Dashboard.</t>
@@ -557,6 +249,12 @@
 2. Click on "Forgot your password?" link.</t>
   </si>
   <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>User is logged in as Admin</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -568,13 +266,6 @@
   <si>
     <t>The user is successfully navigated to the "Add Employee" page
 The employee is successfully added and the user is navigated to the employee details page</t>
-  </si>
-  <si>
-    <t>1. At the top, click on the  "Add Employee" button
-2. Enter the employee First name and Last name
-3. Switch the toggle button next to the "Create Login Details" text on
-4. Enter a valid username and password
-5. Click on "Save"</t>
   </si>
   <si>
     <t>The user is successfully navigated to the "Add Employee" page
@@ -653,6 +344,251 @@
   </si>
   <si>
     <t>After clicking on "Yes, Delete", a notification in the bottom left corner appears notifiying the user that the employee has been successfully deleted. Shortly after this, another notification appears "No Records Found", indicating that the employee is in fact deleted.</t>
+  </si>
+  <si>
+    <t>1. Click on the "PIM" menu item in the left menu
+2. At the top, click on the  "Add Employee" button
+3. Enter the employee First name and Last name
+4. Switch the toggle button next to the "Create Login Details" text on
+5. Enter a valid username and password
+6. Click on "Save"</t>
+  </si>
+  <si>
+    <t>The user is successfully navigated to the "PIM" page
+The user is successfully navigated to the "Add Employee" page inside "PIM"
+The employee is successfully added and the user is navigated to the employee details page</t>
+  </si>
+  <si>
+    <t>Verify Adding a New System User</t>
+  </si>
+  <si>
+    <t>User Role: ESS
+Employee Name: James Butler
+Status: Enabled
+Username: james2
+Password: JmS98*</t>
+  </si>
+  <si>
+    <t>Verify Adding a New Job Title</t>
+  </si>
+  <si>
+    <t>Verify Editing a System User's information</t>
+  </si>
+  <si>
+    <t>User is logged in as Admin and Is On the Admin Page</t>
+  </si>
+  <si>
+    <t>1. Click on the "Admin" menu item in the left menu
+2. At the top, click on the  "User Management" button and choose "Users"
+3. Abvce the listed items, click on the "+ Add" button
+4. Fill in the "User Role", "Employee Name", "Status", "username" and "password" fields
+5. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>1. At the top, click on the  "User Management" button and choose "Users"
+2. Enter the username in the "Username" field
+3. Click on the "Search" button
+4. In the "Actions" column within the user's row, click on the edit button
+5. Change username
+6. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>Username: james2
+New Username: james29</t>
+  </si>
+  <si>
+    <t>Job Title: Accountant</t>
+  </si>
+  <si>
+    <t>After clicking on "save", a notification in the bottom left corner appears notifiying the user that the changes have been successfully saved
+The new user appears in the users list after searching by username</t>
+  </si>
+  <si>
+    <t>After clicking on "save", a notification in the bottom left corner appears notifiying the user that the changes have been successfully saved
+Inside "Job Titles", now the user can see the created job title</t>
+  </si>
+  <si>
+    <t>1. At the top, click on the  "Job" button and choose "Job Titles" item
+3. On the right side, above the listed items, click on the "+ Add" button
+4. Fill in the "Job Title" field
+5. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>After clicking on "save", a notification in the bottom left corner appears notifiying the user that the changes have been successfully saved
+Inside "Users", now the user can see the user with the changed username</t>
+  </si>
+  <si>
+    <t>Verify Adding a New Candidate</t>
+  </si>
+  <si>
+    <t>1. Click on the "Recruitment" menu item in the left menu
+2. Above the listed items, click on the "+ Add" button
+3. Fill in the "First Name", "Last Name", and "Email" fields
+"Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>First Name: Alvin
+Last Name: Moore
+Email: alvinmoore@mail.com</t>
+  </si>
+  <si>
+    <t>After clicking on "save", a notification in the bottom left corner appears notifiying the user that the changes have been successfully saved
+The user is navigated to the new candidate's profile</t>
+  </si>
+  <si>
+    <t>Verify Deleting a Candidate</t>
+  </si>
+  <si>
+    <t>Candidate Name: Alvin Moore</t>
+  </si>
+  <si>
+    <t>1. In the "Candidate Name" field, enter the full name
+2. Click on the "Search" Button
+3. In the row of the candidate, click on the delete button
+4. In the pop-up window, click on the "Yes, Delete" button</t>
+  </si>
+  <si>
+    <t>After clicking on "Yes, Delete", a notification in the bottom left corner appears notifiying the user that the candidate has been successfully deleted. Shortly after this, another notification appears "No Records Found", indicating that the candidate is in fact deleted.</t>
+  </si>
+  <si>
+    <t>User is logged in as Admin and is on the Recruitment Page</t>
+  </si>
+  <si>
+    <t>Verify Searching For a Vacancy</t>
+  </si>
+  <si>
+    <t>1. At the top, click on the "Vacancies" button
+2. Choose "Support Specialist" in the "Job Title" dropdown
+3. Click on the "Search" button</t>
+  </si>
+  <si>
+    <t>The vacancies for "Support Specialist" jobs can be viewed</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_001</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_001</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_002</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_003</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_004</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_005</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_006</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_007</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_008</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_002</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_003</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_004</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_005</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_006</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_007</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_008</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_009</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_010</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_011</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_012</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_013</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_014</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_015</t>
+  </si>
+  <si>
+    <t>TC_CLAIM_016</t>
+  </si>
+  <si>
+    <t>Verify Claim Module Functionality</t>
+  </si>
+  <si>
+    <t>Verify Buzz Module Functionality</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_001</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_002</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_003</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_004</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_005</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_006</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_007</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_008</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_009</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_010</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_011</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_012</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_013</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_014</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_015</t>
+  </si>
+  <si>
+    <t>TC_BUZZ_016</t>
   </si>
 </sst>
 </file>
@@ -662,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -721,6 +657,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -797,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -838,126 +781,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBF9000"/>
-          <bgColor rgb="FFBF9000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBF9000"/>
-          <bgColor rgb="FFBF9000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1637,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1663,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -1672,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1687,28 +1521,28 @@
     </row>
     <row r="2" spans="1:10" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>3</v>
@@ -1717,28 +1551,28 @@
     </row>
     <row r="3" spans="1:10" ht="70.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>3</v>
@@ -1747,28 +1581,28 @@
     </row>
     <row r="4" spans="1:10" ht="69" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>3</v>
@@ -1777,28 +1611,28 @@
     </row>
     <row r="5" spans="1:10" ht="70.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>3</v>
@@ -1807,26 +1641,26 @@
     </row>
     <row r="6" spans="1:10" ht="69" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>3</v>
@@ -1835,26 +1669,26 @@
     </row>
     <row r="7" spans="1:10" ht="72" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -1863,26 +1697,26 @@
     </row>
     <row r="8" spans="1:10" ht="73.8" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>3</v>
@@ -1891,26 +1725,26 @@
     </row>
     <row r="9" spans="1:10" ht="57.6" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>3</v>
@@ -2010,29 +1844,29 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(G2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(G2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Block / Skip">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Block / Skip">
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9 I30">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="7">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2059,8 +1893,8 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2085,10 +1919,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -2097,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -2110,33 +1944,33 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="114" customHeight="1">
+    <row r="2" spans="1:11" ht="148.80000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>3</v>
@@ -2145,93 +1979,93 @@
     </row>
     <row r="3" spans="1:11" ht="93" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="92.4" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="79.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>3</v>
@@ -2240,31 +2074,31 @@
     </row>
     <row r="6" spans="1:11" ht="89.4" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>3</v>
@@ -2273,67 +2107,67 @@
     </row>
     <row r="7" spans="1:11" ht="126" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="138.6" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>191</v>
+        <v>89</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -2425,29 +2259,29 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H2:H8">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="Block / Skip">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Block / Skip">
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13 J2:J8">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="7">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2467,22 +2301,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251BA0B1-A166-4524-95C9-BC5271B55569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35412A5A-2DEC-41B9-A7A9-EF808403FC67}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="4" width="32.77734375" customWidth="1"/>
+    <col min="2" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" customWidth="1"/>
     <col min="6" max="7" width="32.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
@@ -2498,11 +2332,11 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -2511,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -2524,359 +2358,135 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="57.6" customHeight="1">
+    <row r="2" spans="1:11" ht="153" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="57.6" customHeight="1">
+    <row r="3" spans="1:11" ht="132">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J3" s="11" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="57.6" customHeight="1">
+    <row r="4" spans="1:11" ht="155.4" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J4" s="11" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.2"/>
-    <row r="19" spans="1:11" ht="13.2"/>
-    <row r="20" spans="1:11" ht="13.2"/>
-    <row r="21" spans="1:11" ht="13.2"/>
-    <row r="22" spans="1:11" ht="13.2">
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.2"/>
-    <row r="24" spans="1:11" ht="13.2"/>
-    <row r="25" spans="1:11" ht="13.2"/>
-    <row r="26" spans="1:11" ht="13.2"/>
-    <row r="27" spans="1:11" ht="13.2"/>
-    <row r="28" spans="1:11" ht="13.2"/>
-    <row r="29" spans="1:11" ht="13.2"/>
-    <row r="30" spans="1:11" ht="13.2"/>
-    <row r="31" spans="1:11" ht="13.2"/>
-    <row r="32" spans="1:11" ht="13.2"/>
+    <row r="5" spans="1:11" ht="13.2"/>
+    <row r="6" spans="1:11" ht="13.2"/>
+    <row r="7" spans="1:11" ht="13.2"/>
+    <row r="8" spans="1:11" ht="13.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.2"/>
+    <row r="10" spans="1:11" ht="13.2"/>
+    <row r="11" spans="1:11" ht="13.2"/>
+    <row r="12" spans="1:11" ht="13.2"/>
+    <row r="13" spans="1:11" ht="13.2"/>
+    <row r="14" spans="1:11" ht="13.2"/>
+    <row r="15" spans="1:11" ht="13.2"/>
+    <row r="16" spans="1:11" ht="13.2"/>
+    <row r="17" ht="13.2"/>
+    <row r="18" ht="13.2"/>
+    <row r="19" ht="13.2"/>
+    <row r="20" ht="13.2"/>
+    <row r="21" ht="13.2"/>
+    <row r="22" ht="13.2"/>
+    <row r="23" ht="13.2"/>
+    <row r="24" ht="13.2"/>
+    <row r="25" ht="13.2"/>
+    <row r="26" ht="13.2"/>
+    <row r="27" ht="13.2"/>
+    <row r="28" ht="13.2"/>
+    <row r="29" ht="13.2"/>
+    <row r="30" ht="13.2"/>
+    <row r="31" ht="13.2"/>
+    <row r="32" ht="13.2"/>
     <row r="33" ht="13.2"/>
     <row r="34" ht="13.2"/>
     <row r="35" ht="13.2"/>
@@ -2931,57 +2541,43 @@
     <row r="84" ht="13.2"/>
     <row r="85" ht="13.2"/>
     <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="Pass">
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Block / Skip">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Block / Skip">
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17 J22">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="7">
+  <conditionalFormatting sqref="J2:J4 J8">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="7">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="J2:J17" xr:uid="{8352EF29-64C1-4C6B-A696-9D25ECCC72B6}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J4" xr:uid="{000199A4-D974-4AC5-810A-D2049E50C90A}">
       <formula1>"Low,Medium,High,Undefined"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H17" xr:uid="{6CC4B928-CA18-4A9E-9456-C4A7956B9E58}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{7B5E655B-A8DF-49E3-A921-95B4C3221AB4}">
       <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J22" xr:uid="{A9B8E317-D2B4-4444-BC8D-D807C4F31D3A}">
+    <dataValidation type="list" allowBlank="1" sqref="J8" xr:uid="{0D5441F7-3499-468C-876C-2EE3AC81BF65}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2990,31 +2586,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC7C28-9BFB-44C8-B58C-1C7E7C6C186B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE741750-19A5-4F95-B877-2DDD5F74FE3A}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="2" max="3" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="7" width="32.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8" customHeight="1">
+    <row r="1" spans="1:11" ht="22.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3022,346 +2618,158 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" customHeight="1">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="109.2" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="130.19999999999999" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" customHeight="1">
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="115.2" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2"/>
-    <row r="19" spans="1:9" ht="13.2"/>
-    <row r="20" spans="1:9" ht="13.2"/>
-    <row r="21" spans="1:9" ht="13.2"/>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2"/>
-    <row r="24" spans="1:9" ht="13.2"/>
-    <row r="25" spans="1:9" ht="13.2"/>
-    <row r="26" spans="1:9" ht="13.2"/>
-    <row r="27" spans="1:9" ht="13.2"/>
-    <row r="28" spans="1:9" ht="13.2"/>
-    <row r="29" spans="1:9" ht="13.2"/>
-    <row r="30" spans="1:9" ht="13.2"/>
-    <row r="31" spans="1:9" ht="13.2"/>
-    <row r="32" spans="1:9" ht="13.2"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.2"/>
+    <row r="6" spans="1:11" ht="13.2"/>
+    <row r="7" spans="1:11" ht="13.2"/>
+    <row r="8" spans="1:11" ht="13.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.2"/>
+    <row r="10" spans="1:11" ht="13.2"/>
+    <row r="11" spans="1:11" ht="13.2"/>
+    <row r="12" spans="1:11" ht="13.2"/>
+    <row r="13" spans="1:11" ht="13.2"/>
+    <row r="14" spans="1:11" ht="13.2"/>
+    <row r="15" spans="1:11" ht="13.2"/>
+    <row r="16" spans="1:11" ht="13.2"/>
+    <row r="17" ht="13.2"/>
+    <row r="18" ht="13.2"/>
+    <row r="19" ht="13.2"/>
+    <row r="20" ht="13.2"/>
+    <row r="21" ht="13.2"/>
+    <row r="22" ht="13.2"/>
+    <row r="23" ht="13.2"/>
+    <row r="24" ht="13.2"/>
+    <row r="25" ht="13.2"/>
+    <row r="26" ht="13.2"/>
+    <row r="27" ht="13.2"/>
+    <row r="28" ht="13.2"/>
+    <row r="29" ht="13.2"/>
+    <row r="30" ht="13.2"/>
+    <row r="31" ht="13.2"/>
+    <row r="32" ht="13.2"/>
     <row r="33" ht="13.2"/>
     <row r="34" ht="13.2"/>
     <row r="35" ht="13.2"/>
@@ -3416,57 +2824,43 @@
     <row r="84" ht="13.2"/>
     <row r="85" ht="13.2"/>
     <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH(("Pass"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH(("Fail"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Block / Skip">
-      <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(F2))))</formula>
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH(("Pass"),(H2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH(("Fail"),(H2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Block / Skip">
+      <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 H22">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="7">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="J2:J4 J8">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="7">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H22" xr:uid="{819EA281-46DE-414E-A92D-27D2E25EF558}">
+    <dataValidation type="list" allowBlank="1" sqref="J8" xr:uid="{7CC266A2-F056-4AC9-84A6-EFA2BC25103E}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{4B2612EB-2045-41B1-A67D-79A2E68D05ED}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{CD3F1A22-EFE7-47F7-BC7A-022F3E86563F}">
       <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H17" xr:uid="{82E85839-A97A-4597-9626-499784CAFAD1}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J4" xr:uid="{195602CD-DD54-47BC-A396-6C9E4C128787}">
       <formula1>"Low,Medium,High,Undefined"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3475,492 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35412A5A-2DEC-41B9-A7A9-EF808403FC67}">
-  <sheetPr>
-    <tabColor rgb="FF6AA84F"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.8" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2"/>
-    <row r="19" spans="1:9" ht="13.2"/>
-    <row r="20" spans="1:9" ht="13.2"/>
-    <row r="21" spans="1:9" ht="13.2"/>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2"/>
-    <row r="24" spans="1:9" ht="13.2"/>
-    <row r="25" spans="1:9" ht="13.2"/>
-    <row r="26" spans="1:9" ht="13.2"/>
-    <row r="27" spans="1:9" ht="13.2"/>
-    <row r="28" spans="1:9" ht="13.2"/>
-    <row r="29" spans="1:9" ht="13.2"/>
-    <row r="30" spans="1:9" ht="13.2"/>
-    <row r="31" spans="1:9" ht="13.2"/>
-    <row r="32" spans="1:9" ht="13.2"/>
-    <row r="33" ht="13.2"/>
-    <row r="34" ht="13.2"/>
-    <row r="35" ht="13.2"/>
-    <row r="36" ht="13.2"/>
-    <row r="37" ht="13.2"/>
-    <row r="38" ht="13.2"/>
-    <row r="39" ht="13.2"/>
-    <row r="40" ht="13.2"/>
-    <row r="41" ht="13.2"/>
-    <row r="42" ht="13.2"/>
-    <row r="43" ht="13.2"/>
-    <row r="44" ht="13.2"/>
-    <row r="45" ht="13.2"/>
-    <row r="46" ht="13.2"/>
-    <row r="47" ht="13.2"/>
-    <row r="48" ht="13.2"/>
-    <row r="49" ht="13.2"/>
-    <row r="50" ht="13.2"/>
-    <row r="51" ht="13.2"/>
-    <row r="52" ht="13.2"/>
-    <row r="53" ht="13.2"/>
-    <row r="54" ht="13.2"/>
-    <row r="55" ht="13.2"/>
-    <row r="56" ht="13.2"/>
-    <row r="57" ht="13.2"/>
-    <row r="58" ht="13.2"/>
-    <row r="59" ht="13.2"/>
-    <row r="60" ht="13.2"/>
-    <row r="61" ht="13.2"/>
-    <row r="62" ht="13.2"/>
-    <row r="63" ht="13.2"/>
-    <row r="64" ht="13.2"/>
-    <row r="65" ht="13.2"/>
-    <row r="66" ht="13.2"/>
-    <row r="67" ht="13.2"/>
-    <row r="68" ht="13.2"/>
-    <row r="69" ht="13.2"/>
-    <row r="70" ht="13.2"/>
-    <row r="71" ht="13.2"/>
-    <row r="72" ht="13.2"/>
-    <row r="73" ht="13.2"/>
-    <row r="74" ht="13.2"/>
-    <row r="75" ht="13.2"/>
-    <row r="76" ht="13.2"/>
-    <row r="77" ht="13.2"/>
-    <row r="78" ht="13.2"/>
-    <row r="79" ht="13.2"/>
-    <row r="80" ht="13.2"/>
-    <row r="81" ht="13.2"/>
-    <row r="82" ht="13.2"/>
-    <row r="83" ht="13.2"/>
-    <row r="84" ht="13.2"/>
-    <row r="85" ht="13.2"/>
-    <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH(("Pass"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH(("Fail"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Block / Skip">
-      <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(F2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 H22">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="7">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H2:H17" xr:uid="{000199A4-D974-4AC5-810A-D2049E50C90A}">
-      <formula1>"Low,Medium,High,Undefined"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{7B5E655B-A8DF-49E3-A921-95B4C3221AB4}">
-      <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H22" xr:uid="{0D5441F7-3499-468C-876C-2EE3AC81BF65}">
-      <formula1>"Low,Medium,High"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE741750-19A5-4F95-B877-2DDD5F74FE3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D09E4-5478-4D2C-B301-C3BBE039B155}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3968,492 +2877,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.8" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2"/>
-    <row r="19" spans="1:9" ht="13.2"/>
-    <row r="20" spans="1:9" ht="13.2"/>
-    <row r="21" spans="1:9" ht="13.2"/>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2"/>
-    <row r="24" spans="1:9" ht="13.2"/>
-    <row r="25" spans="1:9" ht="13.2"/>
-    <row r="26" spans="1:9" ht="13.2"/>
-    <row r="27" spans="1:9" ht="13.2"/>
-    <row r="28" spans="1:9" ht="13.2"/>
-    <row r="29" spans="1:9" ht="13.2"/>
-    <row r="30" spans="1:9" ht="13.2"/>
-    <row r="31" spans="1:9" ht="13.2"/>
-    <row r="32" spans="1:9" ht="13.2"/>
-    <row r="33" ht="13.2"/>
-    <row r="34" ht="13.2"/>
-    <row r="35" ht="13.2"/>
-    <row r="36" ht="13.2"/>
-    <row r="37" ht="13.2"/>
-    <row r="38" ht="13.2"/>
-    <row r="39" ht="13.2"/>
-    <row r="40" ht="13.2"/>
-    <row r="41" ht="13.2"/>
-    <row r="42" ht="13.2"/>
-    <row r="43" ht="13.2"/>
-    <row r="44" ht="13.2"/>
-    <row r="45" ht="13.2"/>
-    <row r="46" ht="13.2"/>
-    <row r="47" ht="13.2"/>
-    <row r="48" ht="13.2"/>
-    <row r="49" ht="13.2"/>
-    <row r="50" ht="13.2"/>
-    <row r="51" ht="13.2"/>
-    <row r="52" ht="13.2"/>
-    <row r="53" ht="13.2"/>
-    <row r="54" ht="13.2"/>
-    <row r="55" ht="13.2"/>
-    <row r="56" ht="13.2"/>
-    <row r="57" ht="13.2"/>
-    <row r="58" ht="13.2"/>
-    <row r="59" ht="13.2"/>
-    <row r="60" ht="13.2"/>
-    <row r="61" ht="13.2"/>
-    <row r="62" ht="13.2"/>
-    <row r="63" ht="13.2"/>
-    <row r="64" ht="13.2"/>
-    <row r="65" ht="13.2"/>
-    <row r="66" ht="13.2"/>
-    <row r="67" ht="13.2"/>
-    <row r="68" ht="13.2"/>
-    <row r="69" ht="13.2"/>
-    <row r="70" ht="13.2"/>
-    <row r="71" ht="13.2"/>
-    <row r="72" ht="13.2"/>
-    <row r="73" ht="13.2"/>
-    <row r="74" ht="13.2"/>
-    <row r="75" ht="13.2"/>
-    <row r="76" ht="13.2"/>
-    <row r="77" ht="13.2"/>
-    <row r="78" ht="13.2"/>
-    <row r="79" ht="13.2"/>
-    <row r="80" ht="13.2"/>
-    <row r="81" ht="13.2"/>
-    <row r="82" ht="13.2"/>
-    <row r="83" ht="13.2"/>
-    <row r="84" ht="13.2"/>
-    <row r="85" ht="13.2"/>
-    <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH(("Pass"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH(("Fail"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Block / Skip">
-      <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(F2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 H22">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="7">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H22" xr:uid="{7CC266A2-F056-4AC9-84A6-EFA2BC25103E}">
-      <formula1>"Low,Medium,High"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{CD3F1A22-EFE7-47F7-BC7A-022F3E86563F}">
-      <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H17" xr:uid="{195602CD-DD54-47BC-A396-6C9E4C128787}">
-      <formula1>"Low,Medium,High,Undefined"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D09E4-5478-4D2C-B301-C3BBE039B155}">
-  <sheetPr>
-    <tabColor rgb="FF6AA84F"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C2:C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4477,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -4498,10 +2922,10 @@
     </row>
     <row r="2" spans="1:9" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
@@ -4517,10 +2941,10 @@
     </row>
     <row r="3" spans="1:9" ht="57.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -4536,10 +2960,10 @@
     </row>
     <row r="4" spans="1:9" ht="57.6" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5"/>
@@ -4555,10 +2979,10 @@
     </row>
     <row r="5" spans="1:9" ht="57.6" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -4574,10 +2998,10 @@
     </row>
     <row r="6" spans="1:9" ht="57.6" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
@@ -4593,10 +3017,10 @@
     </row>
     <row r="7" spans="1:9" ht="57.6" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -4612,10 +3036,10 @@
     </row>
     <row r="8" spans="1:9" ht="57.6" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
@@ -4631,10 +3055,10 @@
     </row>
     <row r="9" spans="1:9" ht="57" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -4650,10 +3074,10 @@
     </row>
     <row r="10" spans="1:9" ht="57" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
@@ -4669,10 +3093,10 @@
     </row>
     <row r="11" spans="1:9" ht="57" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
@@ -4688,10 +3112,10 @@
     </row>
     <row r="12" spans="1:9" ht="57" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
@@ -4707,10 +3131,10 @@
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -4726,10 +3150,10 @@
     </row>
     <row r="14" spans="1:9" ht="57" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
@@ -4745,10 +3169,10 @@
     </row>
     <row r="15" spans="1:9" ht="57" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5"/>
@@ -4764,10 +3188,10 @@
     </row>
     <row r="16" spans="1:9" ht="57" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -4783,10 +3207,10 @@
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
@@ -4929,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF54C7-0B70-470C-A1DD-6E0D1BFAF716}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
@@ -4937,8 +3361,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4962,7 +3386,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -4983,10 +3407,10 @@
     </row>
     <row r="2" spans="1:9" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
@@ -5002,10 +3426,10 @@
     </row>
     <row r="3" spans="1:9" ht="57.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -5021,10 +3445,10 @@
     </row>
     <row r="4" spans="1:9" ht="57.6" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5"/>
@@ -5040,10 +3464,10 @@
     </row>
     <row r="5" spans="1:9" ht="57.6" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -5059,10 +3483,10 @@
     </row>
     <row r="6" spans="1:9" ht="57.6" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
@@ -5078,10 +3502,10 @@
     </row>
     <row r="7" spans="1:9" ht="57.6" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -5097,10 +3521,10 @@
     </row>
     <row r="8" spans="1:9" ht="57.6" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
@@ -5116,10 +3540,10 @@
     </row>
     <row r="9" spans="1:9" ht="57" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -5135,10 +3559,10 @@
     </row>
     <row r="10" spans="1:9" ht="57" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
@@ -5154,10 +3578,10 @@
     </row>
     <row r="11" spans="1:9" ht="57" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
@@ -5173,10 +3597,10 @@
     </row>
     <row r="12" spans="1:9" ht="57" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
@@ -5192,10 +3616,10 @@
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -5211,10 +3635,10 @@
     </row>
     <row r="14" spans="1:9" ht="57" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
@@ -5230,10 +3654,10 @@
     </row>
     <row r="15" spans="1:9" ht="57" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5"/>
@@ -5249,10 +3673,10 @@
     </row>
     <row r="16" spans="1:9" ht="57" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -5268,10 +3692,10 @@
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamx\Documents\Portfolio\Software Testing\Manual Testing Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055115A3-CAC2-442A-944C-14533B610892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DCB35-294F-4865-B05C-BF254E7B0023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
   <si>
     <t>Expected Result</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Verify Login Functionality</t>
-  </si>
-  <si>
     <t>Login with a valid username and a valid password</t>
   </si>
   <si>
@@ -108,21 +105,9 @@
     <t>Verify adding employee with leaving "Last Name" field empty</t>
   </si>
   <si>
-    <t>Verify updating employee's information</t>
-  </si>
-  <si>
     <t>Verify deleting employee</t>
   </si>
   <si>
-    <t>Verify viewing employees' information</t>
-  </si>
-  <si>
-    <t>Verify PIM Module Functionality</t>
-  </si>
-  <si>
-    <t>Verify Admin Module Functionality</t>
-  </si>
-  <si>
     <t>TC_ADMIN_001</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
   </si>
   <si>
     <t>TC_REC_001</t>
-  </si>
-  <si>
-    <t>Verify Recruitment Module Functionality</t>
   </si>
   <si>
     <t>TC_REC_002</t>
@@ -372,9 +354,6 @@
     <t>Verify Adding a New Job Title</t>
   </si>
   <si>
-    <t>Verify Editing a System User's information</t>
-  </si>
-  <si>
     <t>User is logged in as Admin and Is On the Admin Page</t>
   </si>
   <si>
@@ -454,9 +433,6 @@
     <t>User is logged in as Admin and is on the Recruitment Page</t>
   </si>
   <si>
-    <t>Verify Searching For a Vacancy</t>
-  </si>
-  <si>
     <t>1. At the top, click on the "Vacancies" button
 2. Choose "Support Specialist" in the "Job Title" dropdown
 3. Click on the "Search" button</t>
@@ -495,48 +471,6 @@
     <t>TC_CLAIM_002</t>
   </si>
   <si>
-    <t>TC_CLAIM_003</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_004</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_005</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_006</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_007</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_008</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_009</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_010</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_011</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_012</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_013</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_014</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_015</t>
-  </si>
-  <si>
-    <t>TC_CLAIM_016</t>
-  </si>
-  <si>
     <t>Verify Claim Module Functionality</t>
   </si>
   <si>
@@ -549,46 +483,67 @@
     <t>TC_BUZZ_002</t>
   </si>
   <si>
-    <t>TC_BUZZ_003</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_004</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_005</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_006</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_007</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_008</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_009</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_010</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_011</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_012</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_013</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_014</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_015</t>
-  </si>
-  <si>
-    <t>TC_BUZZ_016</t>
+    <t>Verify successful login with valid credentials</t>
+  </si>
+  <si>
+    <t>Verify accessibility of the 'Forgot Password' page</t>
+  </si>
+  <si>
+    <t>Verify Adding employee</t>
+  </si>
+  <si>
+    <t>Validate login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Validate case sensitivity in login fields</t>
+  </si>
+  <si>
+    <t>Validate login with empty input fields</t>
+  </si>
+  <si>
+    <t>Verify Searching For Employee</t>
+  </si>
+  <si>
+    <t>Verify Accessibility of the Employees' Information</t>
+  </si>
+  <si>
+    <t>Verify Updating employee's information</t>
+  </si>
+  <si>
+    <t>Verify updating employee's First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify viewing employees' information </t>
+  </si>
+  <si>
+    <t>Verify deleting an employee</t>
+  </si>
+  <si>
+    <t>Verify Adding Employee with empty fields</t>
+  </si>
+  <si>
+    <t>Verify Adding a New User In Admin Module</t>
+  </si>
+  <si>
+    <t>Verify Editing a User's information in Admin Module</t>
+  </si>
+  <si>
+    <t>Verify Editing a System User's Username</t>
+  </si>
+  <si>
+    <t>Verify Adding a New Job Title in Admin Module</t>
+  </si>
+  <si>
+    <t>Verify Searching For a Vacancy By Job Title</t>
+  </si>
+  <si>
+    <t>Verify Adding a New Candidate in Recruitment Module</t>
+  </si>
+  <si>
+    <t>Verify Deleting a Candidate in Recruitment Module</t>
+  </si>
+  <si>
+    <t>Verify Searching For a Vacancy in Recruitment Module</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1506,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1521,28 +1476,28 @@
     </row>
     <row r="2" spans="1:10" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>3</v>
@@ -1551,28 +1506,28 @@
     </row>
     <row r="3" spans="1:10" ht="70.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>3</v>
@@ -1581,28 +1536,28 @@
     </row>
     <row r="4" spans="1:10" ht="69" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>3</v>
@@ -1611,28 +1566,28 @@
     </row>
     <row r="5" spans="1:10" ht="70.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>3</v>
@@ -1641,26 +1596,26 @@
     </row>
     <row r="6" spans="1:10" ht="69" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>115</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>3</v>
@@ -1669,26 +1624,26 @@
     </row>
     <row r="7" spans="1:10" ht="72" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>116</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -1697,26 +1652,26 @@
     </row>
     <row r="8" spans="1:10" ht="73.8" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>3</v>
@@ -1725,26 +1680,26 @@
     </row>
     <row r="9" spans="1:10" ht="57.6" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>3</v>
@@ -1893,16 +1848,16 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" customWidth="1"/>
     <col min="6" max="7" width="32.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
@@ -1919,10 +1874,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -1931,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -1946,31 +1901,31 @@
     </row>
     <row r="2" spans="1:11" ht="148.80000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>68</v>
+        <v>126</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>3</v>
@@ -1979,93 +1934,93 @@
     </row>
     <row r="3" spans="1:11" ht="93" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="92.4" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="79.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>71</v>
+        <v>130</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>3</v>
@@ -2074,31 +2029,31 @@
     </row>
     <row r="6" spans="1:11" ht="89.4" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>3</v>
@@ -2107,67 +2062,67 @@
     </row>
     <row r="7" spans="1:11" ht="126" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="138.6" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -2269,7 +2224,7 @@
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 J2:J8">
+  <conditionalFormatting sqref="J2:J8 J13">
     <cfRule type="notContainsBlanks" dxfId="31" priority="7">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
@@ -2309,7 +2264,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2333,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -2345,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -2360,31 +2315,31 @@
     </row>
     <row r="2" spans="1:11" ht="153" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>3</v>
@@ -2393,67 +2348,67 @@
     </row>
     <row r="3" spans="1:11" ht="132">
       <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="155.4" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -2593,8 +2548,8 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2618,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -2630,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -2645,31 +2600,31 @@
     </row>
     <row r="2" spans="1:11" ht="109.2" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>3</v>
@@ -2678,65 +2633,65 @@
     </row>
     <row r="3" spans="1:11" ht="130.19999999999999" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="115.2" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -2874,10 +2829,10 @@
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2922,10 +2877,10 @@
     </row>
     <row r="2" spans="1:9" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
@@ -2941,10 +2896,10 @@
     </row>
     <row r="3" spans="1:9" ht="57.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -2958,289 +2913,37 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2"/>
-    <row r="19" spans="1:9" ht="13.2"/>
-    <row r="20" spans="1:9" ht="13.2"/>
-    <row r="21" spans="1:9" ht="13.2"/>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2"/>
-    <row r="24" spans="1:9" ht="13.2"/>
-    <row r="25" spans="1:9" ht="13.2"/>
-    <row r="26" spans="1:9" ht="13.2"/>
-    <row r="27" spans="1:9" ht="13.2"/>
-    <row r="28" spans="1:9" ht="13.2"/>
-    <row r="29" spans="1:9" ht="13.2"/>
-    <row r="30" spans="1:9" ht="13.2"/>
-    <row r="31" spans="1:9" ht="13.2"/>
-    <row r="32" spans="1:9" ht="13.2"/>
+    <row r="4" spans="1:9" ht="13.2"/>
+    <row r="5" spans="1:9" ht="13.2"/>
+    <row r="6" spans="1:9" ht="13.2"/>
+    <row r="7" spans="1:9" ht="13.2"/>
+    <row r="8" spans="1:9" ht="13.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.2"/>
+    <row r="10" spans="1:9" ht="13.2"/>
+    <row r="11" spans="1:9" ht="13.2"/>
+    <row r="12" spans="1:9" ht="13.2"/>
+    <row r="13" spans="1:9" ht="13.2"/>
+    <row r="14" spans="1:9" ht="13.2"/>
+    <row r="15" spans="1:9" ht="13.2"/>
+    <row r="16" spans="1:9" ht="13.2"/>
+    <row r="17" ht="13.2"/>
+    <row r="18" ht="13.2"/>
+    <row r="19" ht="13.2"/>
+    <row r="20" ht="13.2"/>
+    <row r="21" ht="13.2"/>
+    <row r="22" ht="13.2"/>
+    <row r="23" ht="13.2"/>
+    <row r="24" ht="13.2"/>
+    <row r="25" ht="13.2"/>
+    <row r="26" ht="13.2"/>
+    <row r="27" ht="13.2"/>
+    <row r="28" ht="13.2"/>
+    <row r="29" ht="13.2"/>
+    <row r="30" ht="13.2"/>
+    <row r="31" ht="13.2"/>
+    <row r="32" ht="13.2"/>
     <row r="33" ht="13.2"/>
     <row r="34" ht="13.2"/>
     <row r="35" ht="13.2"/>
@@ -3295,23 +2998,9 @@
     <row r="84" ht="13.2"/>
     <row r="85" ht="13.2"/>
     <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F3">
     <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(F2))))</formula>
     </cfRule>
@@ -3322,12 +3011,12 @@
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 H22">
+  <conditionalFormatting sqref="H2:H3 H8">
     <cfRule type="notContainsBlanks" dxfId="10" priority="7">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -3339,13 +3028,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H2:H17" xr:uid="{DE1041BB-A627-4FA8-A7B3-C13AABC50CA1}">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H3" xr:uid="{DE1041BB-A627-4FA8-A7B3-C13AABC50CA1}">
       <formula1>"Low,Medium,High,Undefined"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{DEA01FE4-CFB6-41CD-8E84-85653B92810E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{DEA01FE4-CFB6-41CD-8E84-85653B92810E}">
       <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H22" xr:uid="{62B55816-4720-4ABD-82E3-DFFE8D6F1EDA}">
+    <dataValidation type="list" allowBlank="1" sqref="H8" xr:uid="{62B55816-4720-4ABD-82E3-DFFE8D6F1EDA}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3359,10 +3048,10 @@
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3407,10 +3096,10 @@
     </row>
     <row r="2" spans="1:9" ht="57.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
@@ -3426,10 +3115,10 @@
     </row>
     <row r="3" spans="1:9" ht="57.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -3443,289 +3132,37 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="57" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="57" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2"/>
-    <row r="19" spans="1:9" ht="13.2"/>
-    <row r="20" spans="1:9" ht="13.2"/>
-    <row r="21" spans="1:9" ht="13.2"/>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2"/>
-    <row r="24" spans="1:9" ht="13.2"/>
-    <row r="25" spans="1:9" ht="13.2"/>
-    <row r="26" spans="1:9" ht="13.2"/>
-    <row r="27" spans="1:9" ht="13.2"/>
-    <row r="28" spans="1:9" ht="13.2"/>
-    <row r="29" spans="1:9" ht="13.2"/>
-    <row r="30" spans="1:9" ht="13.2"/>
-    <row r="31" spans="1:9" ht="13.2"/>
-    <row r="32" spans="1:9" ht="13.2"/>
+    <row r="4" spans="1:9" ht="13.2"/>
+    <row r="5" spans="1:9" ht="13.2"/>
+    <row r="6" spans="1:9" ht="13.2"/>
+    <row r="7" spans="1:9" ht="13.2"/>
+    <row r="8" spans="1:9" ht="13.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.2"/>
+    <row r="10" spans="1:9" ht="13.2"/>
+    <row r="11" spans="1:9" ht="13.2"/>
+    <row r="12" spans="1:9" ht="13.2"/>
+    <row r="13" spans="1:9" ht="13.2"/>
+    <row r="14" spans="1:9" ht="13.2"/>
+    <row r="15" spans="1:9" ht="13.2"/>
+    <row r="16" spans="1:9" ht="13.2"/>
+    <row r="17" ht="13.2"/>
+    <row r="18" ht="13.2"/>
+    <row r="19" ht="13.2"/>
+    <row r="20" ht="13.2"/>
+    <row r="21" ht="13.2"/>
+    <row r="22" ht="13.2"/>
+    <row r="23" ht="13.2"/>
+    <row r="24" ht="13.2"/>
+    <row r="25" ht="13.2"/>
+    <row r="26" ht="13.2"/>
+    <row r="27" ht="13.2"/>
+    <row r="28" ht="13.2"/>
+    <row r="29" ht="13.2"/>
+    <row r="30" ht="13.2"/>
+    <row r="31" ht="13.2"/>
+    <row r="32" ht="13.2"/>
     <row r="33" ht="13.2"/>
     <row r="34" ht="13.2"/>
     <row r="35" ht="13.2"/>
@@ -3780,23 +3217,9 @@
     <row r="84" ht="13.2"/>
     <row r="85" ht="13.2"/>
     <row r="86" ht="13.2"/>
-    <row r="87" ht="13.2"/>
-    <row r="88" ht="13.2"/>
-    <row r="89" ht="13.2"/>
-    <row r="90" ht="13.2"/>
-    <row r="91" ht="13.2"/>
-    <row r="92" ht="13.2"/>
-    <row r="93" ht="13.2"/>
-    <row r="94" ht="13.2"/>
-    <row r="95" ht="13.2"/>
-    <row r="96" ht="13.2"/>
-    <row r="97" ht="13.2"/>
-    <row r="98" ht="13.2"/>
-    <row r="99" ht="13.2"/>
-    <row r="100" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F3">
     <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(F2))))</formula>
     </cfRule>
@@ -3807,12 +3230,12 @@
       <formula>NOT(ISERROR(SEARCH(("Block / Skip"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 H22">
+  <conditionalFormatting sqref="H2:H3 H8">
     <cfRule type="notContainsBlanks" dxfId="3" priority="7">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -3824,13 +3247,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H22" xr:uid="{F5FD6DC1-104F-464F-8A3D-CBCC5ACECBA4}">
+    <dataValidation type="list" allowBlank="1" sqref="H8" xr:uid="{F5FD6DC1-104F-464F-8A3D-CBCC5ACECBA4}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{A4FF145E-3067-4B3B-AA3F-90BD8B3FF058}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{A4FF145E-3067-4B3B-AA3F-90BD8B3FF058}">
       <formula1>"Ready to Test,Pass,Fail,Block / Skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H17" xr:uid="{969473BC-AACC-41AF-843A-9F5D83C34C02}">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H3" xr:uid="{969473BC-AACC-41AF-843A-9F5D83C34C02}">
       <formula1>"Low,Medium,High,Undefined"</formula1>
     </dataValidation>
   </dataValidations>
